--- a/笔记/知识点梳理/操作系统.xlsx
+++ b/笔记/知识点梳理/操作系统.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1442">
   <si>
     <t>一级分类</t>
   </si>
@@ -2931,6 +2931,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">将多个CPU核组装在一个芯片上
 </t>
     </r>
@@ -3039,6 +3046,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>缺点：1.</t>
     </r>
     <r>
@@ -3181,6 +3195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">为每个任务分配一定比例的CPU处理时间，每个任务分配的具体比例是根据友好值（nice）来计算。数值较低表示较高的相对优先级。
 </t>
     </r>
@@ -4631,12 +4652,23 @@
     <t>内存管理：栈内存由计算机操作系统自动分配和释放，主要用于存储局部变量和函数调用的信息（例如返回地址）。相比之下，堆内存是由程序员显式申请和释放的，主要用于存储动态分配的数据（例如你在运行时创建的对象）</t>
   </si>
   <si>
+    <t>栈（stack）内存，申请和释放操作是编译器来隐式管理的，也称为自动内存。
+如 int x; 就申请了一个整型变量在栈上</t>
+  </si>
+  <si>
     <t>生命周期：栈上的变量在函数调用结束时就被自动销毁，而堆上的数据直到程序员显式销毁或程序结束时才被销毁。</t>
   </si>
   <si>
+    <t>当你进入一个函数时候，在栈上开辟空间，从函数退出时，编译器释放内存。</t>
+  </si>
+  <si>
     <t>空间大小：栈的大小通常比堆小。栈的大小在程序启动时由系统设置，并且在程序运行期间不能改变。相比之下，堆的大小只受到计算机系统内存大小的限制。</t>
   </si>
   <si>
+    <t>堆（heap）：所有的申请和释放操作都是由程序员显示地完成。
+int *x = (int *)malloc(sizeof(int)) // malloc 就在堆上请求整数的空间</t>
+  </si>
+  <si>
     <t>访问速度：访问栈内存的速度通常比堆内存快，因为栈在物理内存中的布局是连续的，并且栈上的数据结构较简单（后进先出）。</t>
   </si>
   <si>
@@ -4646,10 +4678,65 @@
     <t>内存碎片：在堆上频繁分配和释放内存可能会导致内存碎片，进而降低内存的利用率。而栈则不会有此问题。</t>
   </si>
   <si>
+    <t>内存操作 API</t>
+  </si>
+  <si>
+    <t>malloc(), 传入一个 size_t 申请堆空间。传入要申请的堆空间的大小，成功就返回一个指向新申请空间的指针，失败就返回 NULL</t>
+  </si>
+  <si>
+    <t>创建堆内存</t>
+  </si>
+  <si>
+    <t>free(), 接收一个由 malloc() 返回的指针，释放堆内存</t>
+  </si>
+  <si>
+    <t>释放堆内存</t>
+  </si>
+  <si>
+    <t>新语言支持自动内存管理，通过 new 或类似的方法类分配一个新对象。不用主动调用来释放空间，垃圾收集器会运行，找不不在引用的内存，释放它</t>
+  </si>
+  <si>
+    <t>常见的问题：忘记分配内存，没有分配足够的内存，忘记初始化分配的内存，忘记释放内存（内存泄露），用完之前释放内存，反复释放内存，错误的调用free()（如没有传入malloc()返回的指针，传入其他值）</t>
+  </si>
+  <si>
+    <r>
+      <t>短时间运行不释放内存，没有内存泄露的原因：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两级内存管理，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一级是由操作系统执行的内存管理，操作系统在进程运行时将内存交给进程，并在进程退出（或以其他方式结束）时将其回收。第二级管理在每个进程中，如在调用malloc()和free()时，在堆内存管理。即使你没有调用free()（并因此泄露了堆中的内存），操作系统也会在程序结束运行时，手绘进程的所有内存（包括用于代码、栈、以及相关堆的内存页）。无论地址空间中堆的状态如何，操作系统都会在进程终止时收回所有这些页面，从而确保即使没有释放内存，也不会丢失内存。</t>
+    </r>
+  </si>
+  <si>
+    <t>calloc()分配内存，并在返回之前将其置零。relloc()创建一个新的更大的内存区域，将旧区域复制到其中，并返回新区域的指针。</t>
+  </si>
+  <si>
     <t>虚拟内存的目标</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>透明</t>
     </r>
     <r>
@@ -4665,6 +4752,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>效率</t>
     </r>
     <r>
@@ -4680,6 +4774,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>保护</t>
     </r>
     <r>
@@ -4695,6 +4796,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>保护可以使进程之间提供</t>
     </r>
     <r>
@@ -4723,6 +4831,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>堆与堆栈之间的空白空间是虚拟地址的一部分，但是只有在生长时，才需要实际的物理页。也称为</t>
     </r>
     <r>
@@ -6552,10 +6667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -6602,9 +6717,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6612,7 +6810,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6626,13 +6824,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6640,38 +6832,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6685,60 +6847,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -6785,31 +6900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6821,7 +6912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6839,7 +6942,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6851,91 +7002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6953,7 +7026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6965,7 +7038,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7068,21 +7183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -7122,11 +7222,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7148,11 +7265,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7160,8 +7275,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7170,152 +7285,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7379,13 +7494,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -7457,27 +7572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7542,8 +7636,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="00C00000"/>
       <color rgb="00000000"/>
-      <color rgb="00C00000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8363,13 +8457,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>115570</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>629285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1442085</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>563245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8387,7 +8481,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20699095" y="66669285"/>
+          <a:off x="20699095" y="71114285"/>
           <a:ext cx="1326515" cy="1203960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8405,13 +8499,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>106045</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5590540</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>605790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8429,7 +8523,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20689570" y="68646040"/>
+          <a:off x="20689570" y="73091040"/>
           <a:ext cx="5484495" cy="4349750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8447,13 +8541,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>93345</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3628390</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>618490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8471,7 +8565,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20676870" y="78228825"/>
+          <a:off x="20676870" y="82673825"/>
           <a:ext cx="3535045" cy="2450465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8489,13 +8583,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>52705</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2087880</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>602615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8513,7 +8607,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20636230" y="108320205"/>
+          <a:off x="20636230" y="112765205"/>
           <a:ext cx="2035175" cy="1172210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8531,13 +8625,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2416810</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>601345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8555,7 +8649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20720685" y="114683540"/>
+          <a:off x="20720685" y="119128540"/>
           <a:ext cx="2279650" cy="1157605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8573,13 +8667,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85090</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7451090</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>454025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8597,7 +8691,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20668615" y="126793625"/>
+          <a:off x="20668615" y="131238625"/>
           <a:ext cx="7366000" cy="4140200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11940,7 +12034,7 @@
     </row>
     <row r="213" customHeight="1" spans="1:6">
       <c r="A213" s="28"/>
-      <c r="B213" s="47" t="s">
+      <c r="B213" s="28" t="s">
         <v>421</v>
       </c>
       <c r="C213" s="28" t="s">
@@ -11956,7 +12050,7 @@
     </row>
     <row r="214" customHeight="1" spans="1:6">
       <c r="A214" s="28"/>
-      <c r="B214" s="47"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="28"/>
       <c r="D214" s="28" t="s">
         <v>425</v>
@@ -11966,7 +12060,7 @@
     </row>
     <row r="215" customHeight="1" spans="1:6">
       <c r="A215" s="28"/>
-      <c r="B215" s="47"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="28"/>
       <c r="D215" s="28" t="s">
         <v>426</v>
@@ -11976,7 +12070,7 @@
     </row>
     <row r="216" customHeight="1" spans="1:6">
       <c r="A216" s="28"/>
-      <c r="B216" s="47"/>
+      <c r="B216" s="28"/>
       <c r="C216" s="28" t="s">
         <v>427</v>
       </c>
@@ -11990,7 +12084,7 @@
     </row>
     <row r="217" customHeight="1" spans="1:6">
       <c r="A217" s="28"/>
-      <c r="B217" s="47"/>
+      <c r="B217" s="28"/>
       <c r="C217" s="28"/>
       <c r="D217" s="28" t="s">
         <v>430</v>
@@ -12002,7 +12096,7 @@
     </row>
     <row r="218" customHeight="1" spans="1:6">
       <c r="A218" s="28"/>
-      <c r="B218" s="47"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="28"/>
       <c r="D218" s="28" t="s">
         <v>432</v>
@@ -12012,7 +12106,7 @@
     </row>
     <row r="219" customHeight="1" spans="1:6">
       <c r="A219" s="28"/>
-      <c r="B219" s="47"/>
+      <c r="B219" s="28"/>
       <c r="C219" s="28" t="s">
         <v>433</v>
       </c>
@@ -12026,7 +12120,7 @@
     </row>
     <row r="220" customHeight="1" spans="1:6">
       <c r="A220" s="28"/>
-      <c r="B220" s="47"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="28" t="s">
         <v>436</v>
       </c>
@@ -12038,7 +12132,7 @@
     </row>
     <row r="221" customHeight="1" spans="1:6">
       <c r="A221" s="28"/>
-      <c r="B221" s="47"/>
+      <c r="B221" s="28"/>
       <c r="C221" s="28" t="s">
         <v>438</v>
       </c>
@@ -12050,7 +12144,7 @@
     </row>
     <row r="222" customHeight="1" spans="1:6">
       <c r="A222" s="28"/>
-      <c r="B222" s="47"/>
+      <c r="B222" s="28"/>
       <c r="C222" s="28"/>
       <c r="D222" s="28" t="s">
         <v>440</v>
@@ -12060,7 +12154,7 @@
     </row>
     <row r="223" customHeight="1" spans="1:6">
       <c r="A223" s="28"/>
-      <c r="B223" s="47"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="28"/>
       <c r="D223" s="28" t="s">
         <v>441</v>
@@ -12072,7 +12166,7 @@
     </row>
     <row r="224" customHeight="1" spans="1:6">
       <c r="A224" s="28"/>
-      <c r="B224" s="47"/>
+      <c r="B224" s="28"/>
       <c r="C224" s="28"/>
       <c r="D224" s="28" t="s">
         <v>443</v>
@@ -12084,7 +12178,7 @@
     </row>
     <row r="225" customHeight="1" spans="1:6">
       <c r="A225" s="28"/>
-      <c r="B225" s="47"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="28" t="s">
         <v>445</v>
       </c>
@@ -12098,7 +12192,7 @@
     </row>
     <row r="226" customHeight="1" spans="1:6">
       <c r="A226" s="28"/>
-      <c r="B226" s="47"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="28"/>
       <c r="D226" s="28" t="s">
         <v>448</v>
@@ -12108,7 +12202,7 @@
     </row>
     <row r="227" customHeight="1" spans="1:6">
       <c r="A227" s="28"/>
-      <c r="B227" s="47"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="28" t="s">
         <v>449</v>
       </c>
@@ -12122,7 +12216,7 @@
     </row>
     <row r="228" customHeight="1" spans="1:6">
       <c r="A228" s="28"/>
-      <c r="B228" s="47"/>
+      <c r="B228" s="28"/>
       <c r="C228" s="28"/>
       <c r="D228" s="28" t="s">
         <v>452</v>
@@ -12132,8 +12226,8 @@
     </row>
     <row r="229" customHeight="1" spans="1:6">
       <c r="A229" s="28"/>
-      <c r="B229" s="47"/>
-      <c r="C229" s="47" t="s">
+      <c r="B229" s="28"/>
+      <c r="C229" s="28" t="s">
         <v>453</v>
       </c>
       <c r="D229" s="28" t="s">
@@ -12146,8 +12240,8 @@
     </row>
     <row r="230" customHeight="1" spans="1:6">
       <c r="A230" s="28"/>
-      <c r="B230" s="47"/>
-      <c r="C230" s="47"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="28"/>
       <c r="D230" s="28" t="s">
         <v>456</v>
       </c>
@@ -12158,8 +12252,8 @@
     </row>
     <row r="231" customHeight="1" spans="1:6">
       <c r="A231" s="28"/>
-      <c r="B231" s="47"/>
-      <c r="C231" s="47"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="28"/>
       <c r="D231" s="28" t="s">
         <v>457</v>
       </c>
@@ -12170,8 +12264,8 @@
     </row>
     <row r="232" customHeight="1" spans="1:6">
       <c r="A232" s="28"/>
-      <c r="B232" s="47"/>
-      <c r="C232" s="47"/>
+      <c r="B232" s="28"/>
+      <c r="C232" s="28"/>
       <c r="D232" s="28" t="s">
         <v>459</v>
       </c>
@@ -12182,8 +12276,8 @@
     </row>
     <row r="233" customHeight="1" spans="1:6">
       <c r="A233" s="28"/>
-      <c r="B233" s="47"/>
-      <c r="C233" s="47"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="28"/>
       <c r="D233" s="28" t="s">
         <v>460</v>
       </c>
@@ -12194,8 +12288,8 @@
     </row>
     <row r="234" customHeight="1" spans="1:6">
       <c r="A234" s="28"/>
-      <c r="B234" s="47"/>
-      <c r="C234" s="47"/>
+      <c r="B234" s="28"/>
+      <c r="C234" s="28"/>
       <c r="D234" s="28" t="s">
         <v>462</v>
       </c>
@@ -12206,8 +12300,8 @@
     </row>
     <row r="235" customHeight="1" spans="1:6">
       <c r="A235" s="28"/>
-      <c r="B235" s="47"/>
-      <c r="C235" s="47"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="28"/>
       <c r="D235" s="28" t="s">
         <v>464</v>
       </c>
@@ -12218,8 +12312,8 @@
     </row>
     <row r="236" customHeight="1" spans="1:6">
       <c r="A236" s="28"/>
-      <c r="B236" s="47"/>
-      <c r="C236" s="47"/>
+      <c r="B236" s="28"/>
+      <c r="C236" s="28"/>
       <c r="D236" s="28" t="s">
         <v>466</v>
       </c>
@@ -12228,9 +12322,9 @@
     </row>
     <row r="237" customHeight="1" spans="1:6">
       <c r="A237" s="28"/>
-      <c r="B237" s="47"/>
-      <c r="C237" s="47"/>
-      <c r="D237" s="48" t="s">
+      <c r="B237" s="28"/>
+      <c r="C237" s="28"/>
+      <c r="D237" s="32" t="s">
         <v>467</v>
       </c>
       <c r="E237" s="28"/>
@@ -12238,9 +12332,9 @@
     </row>
     <row r="238" customHeight="1" spans="1:6">
       <c r="A238" s="28"/>
-      <c r="B238" s="47"/>
-      <c r="C238" s="47"/>
-      <c r="D238" s="48" t="s">
+      <c r="B238" s="28"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="32" t="s">
         <v>468</v>
       </c>
       <c r="E238" s="28"/>
@@ -12248,9 +12342,9 @@
     </row>
     <row r="239" customHeight="1" spans="1:6">
       <c r="A239" s="28"/>
-      <c r="B239" s="47"/>
-      <c r="C239" s="47"/>
-      <c r="D239" s="48" t="s">
+      <c r="B239" s="28"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="32" t="s">
         <v>469</v>
       </c>
       <c r="E239" s="28"/>
@@ -12258,9 +12352,9 @@
     </row>
     <row r="240" customHeight="1" spans="1:6">
       <c r="A240" s="28"/>
-      <c r="B240" s="47"/>
-      <c r="C240" s="47"/>
-      <c r="D240" s="48" t="s">
+      <c r="B240" s="28"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="32" t="s">
         <v>470</v>
       </c>
       <c r="E240" s="28"/>
@@ -12268,9 +12362,9 @@
     </row>
     <row r="241" customHeight="1" spans="1:6">
       <c r="A241" s="28"/>
-      <c r="B241" s="47"/>
-      <c r="C241" s="47"/>
-      <c r="D241" s="48" t="s">
+      <c r="B241" s="28"/>
+      <c r="C241" s="28"/>
+      <c r="D241" s="32" t="s">
         <v>471</v>
       </c>
       <c r="E241" s="28"/>
@@ -12278,8 +12372,8 @@
     </row>
     <row r="242" customHeight="1" spans="1:6">
       <c r="A242" s="28"/>
-      <c r="B242" s="47"/>
-      <c r="C242" s="47" t="s">
+      <c r="B242" s="28"/>
+      <c r="C242" s="28" t="s">
         <v>472</v>
       </c>
       <c r="D242" s="33" t="s">
@@ -12290,9 +12384,9 @@
     </row>
     <row r="243" customHeight="1" spans="1:6">
       <c r="A243" s="28"/>
-      <c r="B243" s="47"/>
-      <c r="C243" s="47"/>
-      <c r="D243" s="49" t="s">
+      <c r="B243" s="28"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="33" t="s">
         <v>474</v>
       </c>
       <c r="E243" s="28"/>
@@ -12300,9 +12394,9 @@
     </row>
     <row r="244" customHeight="1" spans="1:6">
       <c r="A244" s="28"/>
-      <c r="B244" s="47"/>
-      <c r="C244" s="47"/>
-      <c r="D244" s="49" t="s">
+      <c r="B244" s="28"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="33" t="s">
         <v>475</v>
       </c>
       <c r="E244" s="28"/>
@@ -12310,9 +12404,9 @@
     </row>
     <row r="245" customHeight="1" spans="1:6">
       <c r="A245" s="28"/>
-      <c r="B245" s="47"/>
-      <c r="C245" s="47"/>
-      <c r="D245" s="49" t="s">
+      <c r="B245" s="28"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="33" t="s">
         <v>476</v>
       </c>
       <c r="E245" s="28" t="s">
@@ -12322,9 +12416,9 @@
     </row>
     <row r="246" customHeight="1" spans="1:6">
       <c r="A246" s="28"/>
-      <c r="B246" s="47"/>
-      <c r="C246" s="47"/>
-      <c r="D246" s="49" t="s">
+      <c r="B246" s="28"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="33" t="s">
         <v>478</v>
       </c>
       <c r="E246" s="28" t="s">
@@ -12334,9 +12428,9 @@
     </row>
     <row r="247" customHeight="1" spans="1:6">
       <c r="A247" s="28"/>
-      <c r="B247" s="47"/>
-      <c r="C247" s="47"/>
-      <c r="D247" s="49" t="s">
+      <c r="B247" s="28"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="33" t="s">
         <v>480</v>
       </c>
       <c r="E247" s="28" t="s">
@@ -12346,11 +12440,11 @@
     </row>
     <row r="248" customHeight="1" spans="1:6">
       <c r="A248" s="28"/>
-      <c r="B248" s="47"/>
-      <c r="C248" s="47" t="s">
+      <c r="B248" s="28"/>
+      <c r="C248" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="D248" s="49" t="s">
+      <c r="D248" s="33" t="s">
         <v>483</v>
       </c>
       <c r="E248" s="28"/>
@@ -12358,9 +12452,9 @@
     </row>
     <row r="249" customHeight="1" spans="1:6">
       <c r="A249" s="28"/>
-      <c r="B249" s="47"/>
-      <c r="C249" s="47"/>
-      <c r="D249" s="49" t="s">
+      <c r="B249" s="28"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="33" t="s">
         <v>484</v>
       </c>
       <c r="E249" s="28" t="s">
@@ -12370,9 +12464,9 @@
     </row>
     <row r="250" customHeight="1" spans="1:6">
       <c r="A250" s="28"/>
-      <c r="B250" s="47"/>
-      <c r="C250" s="47"/>
-      <c r="D250" s="49" t="s">
+      <c r="B250" s="28"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="33" t="s">
         <v>486</v>
       </c>
       <c r="E250" s="28"/>
@@ -12430,7 +12524,7 @@
     </row>
     <row r="255" customHeight="1" spans="1:6">
       <c r="A255" s="28"/>
-      <c r="B255" s="50" t="s">
+      <c r="B255" s="27" t="s">
         <v>495</v>
       </c>
       <c r="C255" s="28" t="s">
@@ -12444,7 +12538,7 @@
     </row>
     <row r="256" customHeight="1" spans="1:6">
       <c r="A256" s="28"/>
-      <c r="B256" s="51"/>
+      <c r="B256" s="29"/>
       <c r="C256" s="28"/>
       <c r="D256" s="28" t="s">
         <v>498</v>
@@ -12456,7 +12550,7 @@
     </row>
     <row r="257" customHeight="1" spans="1:6">
       <c r="A257" s="28"/>
-      <c r="B257" s="51"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="28" t="s">
         <v>500</v>
       </c>
@@ -12470,7 +12564,7 @@
     </row>
     <row r="258" customHeight="1" spans="1:6">
       <c r="A258" s="28"/>
-      <c r="B258" s="51"/>
+      <c r="B258" s="29"/>
       <c r="C258" s="28"/>
       <c r="D258" s="28" t="s">
         <v>503</v>
@@ -12482,7 +12576,7 @@
     </row>
     <row r="259" customHeight="1" spans="1:6">
       <c r="A259" s="28"/>
-      <c r="B259" s="51"/>
+      <c r="B259" s="29"/>
       <c r="C259" s="28" t="s">
         <v>505</v>
       </c>
@@ -12496,7 +12590,7 @@
     </row>
     <row r="260" customHeight="1" spans="1:6">
       <c r="A260" s="28"/>
-      <c r="B260" s="51"/>
+      <c r="B260" s="29"/>
       <c r="C260" s="28"/>
       <c r="D260" s="28" t="s">
         <v>508</v>
@@ -12508,7 +12602,7 @@
     </row>
     <row r="261" customHeight="1" spans="1:6">
       <c r="A261" s="28"/>
-      <c r="B261" s="51"/>
+      <c r="B261" s="29"/>
       <c r="C261" s="28"/>
       <c r="D261" s="28" t="s">
         <v>510</v>
@@ -12518,7 +12612,7 @@
     </row>
     <row r="262" customHeight="1" spans="1:6">
       <c r="A262" s="28"/>
-      <c r="B262" s="51"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="28"/>
       <c r="D262" s="28" t="s">
         <v>511</v>
@@ -12528,7 +12622,7 @@
     </row>
     <row r="263" customHeight="1" spans="1:6">
       <c r="A263" s="28"/>
-      <c r="B263" s="51"/>
+      <c r="B263" s="29"/>
       <c r="C263" s="28" t="s">
         <v>512</v>
       </c>
@@ -12542,7 +12636,7 @@
     </row>
     <row r="264" customHeight="1" spans="1:6">
       <c r="A264" s="28"/>
-      <c r="B264" s="51"/>
+      <c r="B264" s="29"/>
       <c r="C264" s="28"/>
       <c r="D264" s="31" t="s">
         <v>515</v>
@@ -12554,7 +12648,7 @@
     </row>
     <row r="265" customHeight="1" spans="1:6">
       <c r="A265" s="28"/>
-      <c r="B265" s="51"/>
+      <c r="B265" s="29"/>
       <c r="C265" s="28"/>
       <c r="D265" s="31" t="s">
         <v>517</v>
@@ -12566,7 +12660,7 @@
     </row>
     <row r="266" customHeight="1" spans="1:6">
       <c r="A266" s="28"/>
-      <c r="B266" s="51"/>
+      <c r="B266" s="29"/>
       <c r="C266" s="28"/>
       <c r="D266" s="31" t="s">
         <v>519</v>
@@ -12578,7 +12672,7 @@
     </row>
     <row r="267" customHeight="1" spans="1:6">
       <c r="A267" s="28"/>
-      <c r="B267" s="51"/>
+      <c r="B267" s="29"/>
       <c r="C267" s="28"/>
       <c r="D267" s="31" t="s">
         <v>521</v>
@@ -12588,7 +12682,7 @@
     </row>
     <row r="268" customHeight="1" spans="1:6">
       <c r="A268" s="28"/>
-      <c r="B268" s="51"/>
+      <c r="B268" s="29"/>
       <c r="C268" s="28"/>
       <c r="D268" s="28" t="s">
         <v>522</v>
@@ -12600,7 +12694,7 @@
     </row>
     <row r="269" customHeight="1" spans="1:6">
       <c r="A269" s="28"/>
-      <c r="B269" s="51"/>
+      <c r="B269" s="29"/>
       <c r="C269" s="28"/>
       <c r="D269" s="28" t="s">
         <v>524</v>
@@ -12610,7 +12704,7 @@
     </row>
     <row r="270" customHeight="1" spans="1:6">
       <c r="A270" s="28"/>
-      <c r="B270" s="51"/>
+      <c r="B270" s="29"/>
       <c r="C270" s="28"/>
       <c r="D270" s="28" t="s">
         <v>525</v>
@@ -12620,7 +12714,7 @@
     </row>
     <row r="271" customHeight="1" spans="1:6">
       <c r="A271" s="28"/>
-      <c r="B271" s="51"/>
+      <c r="B271" s="29"/>
       <c r="C271" s="28"/>
       <c r="D271" s="28" t="s">
         <v>526</v>
@@ -12630,7 +12724,7 @@
     </row>
     <row r="272" customHeight="1" spans="1:6">
       <c r="A272" s="28"/>
-      <c r="B272" s="51"/>
+      <c r="B272" s="29"/>
       <c r="C272" s="28"/>
       <c r="D272" s="28" t="s">
         <v>527</v>
@@ -12640,8 +12734,8 @@
     </row>
     <row r="273" customHeight="1" spans="1:6">
       <c r="A273" s="28"/>
-      <c r="B273" s="51"/>
-      <c r="C273" s="50" t="s">
+      <c r="B273" s="29"/>
+      <c r="C273" s="27" t="s">
         <v>528</v>
       </c>
       <c r="D273" s="28" t="s">
@@ -12652,8 +12746,8 @@
     </row>
     <row r="274" customHeight="1" spans="1:6">
       <c r="A274" s="28"/>
-      <c r="B274" s="51"/>
-      <c r="C274" s="51"/>
+      <c r="B274" s="29"/>
+      <c r="C274" s="29"/>
       <c r="D274" s="28" t="s">
         <v>530</v>
       </c>
@@ -12662,8 +12756,8 @@
     </row>
     <row r="275" customHeight="1" spans="1:6">
       <c r="A275" s="28"/>
-      <c r="B275" s="51"/>
-      <c r="C275" s="52"/>
+      <c r="B275" s="29"/>
+      <c r="C275" s="30"/>
       <c r="D275" s="31" t="s">
         <v>531</v>
       </c>
@@ -12672,8 +12766,8 @@
     </row>
     <row r="276" customHeight="1" spans="1:6">
       <c r="A276" s="28"/>
-      <c r="B276" s="51"/>
-      <c r="C276" s="50" t="s">
+      <c r="B276" s="29"/>
+      <c r="C276" s="27" t="s">
         <v>507</v>
       </c>
       <c r="D276" s="28" t="s">
@@ -12684,8 +12778,8 @@
     </row>
     <row r="277" customHeight="1" spans="1:6">
       <c r="A277" s="28"/>
-      <c r="B277" s="51"/>
-      <c r="C277" s="51"/>
+      <c r="B277" s="29"/>
+      <c r="C277" s="29"/>
       <c r="D277" s="28" t="s">
         <v>533</v>
       </c>
@@ -12696,8 +12790,8 @@
     </row>
     <row r="278" customHeight="1" spans="1:6">
       <c r="A278" s="28"/>
-      <c r="B278" s="51"/>
-      <c r="C278" s="52"/>
+      <c r="B278" s="29"/>
+      <c r="C278" s="30"/>
       <c r="D278" s="28" t="s">
         <v>535</v>
       </c>
@@ -12885,7 +12979,7 @@
     <row r="293" customHeight="1" spans="1:6">
       <c r="A293" s="28"/>
       <c r="B293" s="9"/>
-      <c r="C293" s="53"/>
+      <c r="C293" s="11"/>
       <c r="D293" s="9" t="s">
         <v>567</v>
       </c>
@@ -12897,7 +12991,7 @@
     <row r="294" customHeight="1" spans="1:6">
       <c r="A294" s="28"/>
       <c r="B294" s="9"/>
-      <c r="C294" s="53"/>
+      <c r="C294" s="11"/>
       <c r="D294" s="9" t="s">
         <v>569</v>
       </c>
@@ -12907,7 +13001,7 @@
     <row r="295" customHeight="1" spans="1:6">
       <c r="A295" s="28"/>
       <c r="B295" s="9"/>
-      <c r="C295" s="53"/>
+      <c r="C295" s="11"/>
       <c r="D295" s="9" t="s">
         <v>570</v>
       </c>
@@ -13441,10 +13535,10 @@
       <c r="D339" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="E339" s="54" t="s">
+      <c r="E339" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="F339" s="54" t="s">
+      <c r="F339" s="47" t="s">
         <v>651</v>
       </c>
     </row>
@@ -13453,8 +13547,8 @@
       <c r="B340" s="10"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
-      <c r="E340" s="56"/>
-      <c r="F340" s="56"/>
+      <c r="E340" s="49"/>
+      <c r="F340" s="49"/>
     </row>
     <row r="341" ht="124" customHeight="1" spans="1:6">
       <c r="A341" s="10"/>
@@ -13465,10 +13559,10 @@
       <c r="D341" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="E341" s="54" t="s">
+      <c r="E341" s="47" t="s">
         <v>654</v>
       </c>
-      <c r="F341" s="54" t="s">
+      <c r="F341" s="47" t="s">
         <v>655</v>
       </c>
     </row>
@@ -13479,8 +13573,8 @@
       <c r="D342" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="E342" s="56"/>
-      <c r="F342" s="56"/>
+      <c r="E342" s="49"/>
+      <c r="F342" s="49"/>
     </row>
     <row r="343" ht="61" customHeight="1" spans="1:6">
       <c r="A343" s="10"/>
@@ -13491,7 +13585,7 @@
       <c r="D343" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E343" s="54" t="s">
+      <c r="E343" s="47" t="s">
         <v>659</v>
       </c>
       <c r="F343" s="9"/>
@@ -13503,7 +13597,7 @@
       <c r="D344" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="E344" s="56"/>
+      <c r="E344" s="49"/>
       <c r="F344" s="9"/>
     </row>
     <row r="345" ht="134" customHeight="1" spans="1:6">
@@ -13528,7 +13622,7 @@
       <c r="C346" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="D346" s="54" t="s">
+      <c r="D346" s="47" t="s">
         <v>665</v>
       </c>
       <c r="E346" s="9" t="s">
@@ -13540,7 +13634,7 @@
       <c r="A347" s="10"/>
       <c r="B347" s="10"/>
       <c r="C347" s="9"/>
-      <c r="D347" s="55"/>
+      <c r="D347" s="48"/>
       <c r="E347" s="9" t="s">
         <v>667</v>
       </c>
@@ -13550,7 +13644,7 @@
       <c r="A348" s="10"/>
       <c r="B348" s="10"/>
       <c r="C348" s="9"/>
-      <c r="D348" s="55"/>
+      <c r="D348" s="48"/>
       <c r="E348" s="9" t="s">
         <v>668</v>
       </c>
@@ -13560,7 +13654,7 @@
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="9"/>
-      <c r="D349" s="55"/>
+      <c r="D349" s="48"/>
       <c r="E349" s="9" t="s">
         <v>669</v>
       </c>
@@ -13570,7 +13664,7 @@
       <c r="A350" s="10"/>
       <c r="B350" s="10"/>
       <c r="C350" s="9"/>
-      <c r="D350" s="55"/>
+      <c r="D350" s="48"/>
       <c r="E350" s="9" t="s">
         <v>670</v>
       </c>
@@ -13580,7 +13674,7 @@
       <c r="A351" s="10"/>
       <c r="B351" s="10"/>
       <c r="C351" s="9"/>
-      <c r="D351" s="55"/>
+      <c r="D351" s="48"/>
       <c r="E351" s="9" t="s">
         <v>671</v>
       </c>
@@ -13590,7 +13684,7 @@
       <c r="A352" s="10"/>
       <c r="B352" s="10"/>
       <c r="C352" s="9"/>
-      <c r="D352" s="55"/>
+      <c r="D352" s="48"/>
       <c r="E352" s="9" t="s">
         <v>672</v>
       </c>
@@ -13600,7 +13694,7 @@
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="9"/>
-      <c r="D353" s="55"/>
+      <c r="D353" s="48"/>
       <c r="E353" s="9"/>
       <c r="F353" s="9"/>
     </row>
@@ -13608,7 +13702,7 @@
       <c r="A354" s="10"/>
       <c r="B354" s="10"/>
       <c r="C354" s="9"/>
-      <c r="D354" s="55"/>
+      <c r="D354" s="48"/>
       <c r="E354" s="9"/>
       <c r="F354" s="9"/>
     </row>
@@ -13616,7 +13710,7 @@
       <c r="A355" s="10"/>
       <c r="B355" s="10"/>
       <c r="C355" s="9"/>
-      <c r="D355" s="55"/>
+      <c r="D355" s="48"/>
       <c r="E355" s="9"/>
       <c r="F355" s="9"/>
     </row>
@@ -13624,7 +13718,7 @@
       <c r="A356" s="10"/>
       <c r="B356" s="10"/>
       <c r="C356" s="9"/>
-      <c r="D356" s="56"/>
+      <c r="D356" s="49"/>
       <c r="E356" s="9"/>
       <c r="F356" s="9"/>
     </row>
@@ -13634,7 +13728,7 @@
       <c r="C357" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="D357" s="54" t="s">
+      <c r="D357" s="47" t="s">
         <v>674</v>
       </c>
       <c r="E357" s="9" t="s">
@@ -13646,7 +13740,7 @@
       <c r="A358" s="10"/>
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
-      <c r="D358" s="55"/>
+      <c r="D358" s="48"/>
       <c r="E358" s="9" t="s">
         <v>676</v>
       </c>
@@ -13656,7 +13750,7 @@
       <c r="A359" s="10"/>
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
-      <c r="D359" s="55"/>
+      <c r="D359" s="48"/>
       <c r="E359" s="9"/>
       <c r="F359" s="9"/>
     </row>
@@ -13664,7 +13758,7 @@
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="10"/>
-      <c r="D360" s="55"/>
+      <c r="D360" s="48"/>
       <c r="E360" s="9"/>
       <c r="F360" s="9"/>
     </row>
@@ -13672,7 +13766,7 @@
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
-      <c r="D361" s="55"/>
+      <c r="D361" s="48"/>
       <c r="E361" s="9"/>
       <c r="F361" s="9"/>
     </row>
@@ -13680,7 +13774,7 @@
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
-      <c r="D362" s="55"/>
+      <c r="D362" s="48"/>
       <c r="E362" s="9"/>
       <c r="F362" s="9"/>
     </row>
@@ -13688,7 +13782,7 @@
       <c r="A363" s="10"/>
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
-      <c r="D363" s="55"/>
+      <c r="D363" s="48"/>
       <c r="E363" s="9"/>
       <c r="F363" s="9"/>
     </row>
@@ -13696,7 +13790,7 @@
       <c r="A364" s="10"/>
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
-      <c r="D364" s="55"/>
+      <c r="D364" s="48"/>
       <c r="E364" s="9"/>
       <c r="F364" s="9"/>
     </row>
@@ -13704,7 +13798,7 @@
       <c r="A365" s="10"/>
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
-      <c r="D365" s="55"/>
+      <c r="D365" s="48"/>
       <c r="E365" s="9"/>
       <c r="F365" s="9"/>
     </row>
@@ -13712,7 +13806,7 @@
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
-      <c r="D366" s="55"/>
+      <c r="D366" s="48"/>
       <c r="E366" s="9"/>
       <c r="F366" s="9"/>
     </row>
@@ -13720,7 +13814,7 @@
       <c r="A367" s="10"/>
       <c r="B367" s="10"/>
       <c r="C367" s="10"/>
-      <c r="D367" s="55"/>
+      <c r="D367" s="48"/>
       <c r="E367" s="9"/>
       <c r="F367" s="9"/>
     </row>
@@ -13728,7 +13822,7 @@
       <c r="A368" s="10"/>
       <c r="B368" s="10"/>
       <c r="C368" s="10"/>
-      <c r="D368" s="55"/>
+      <c r="D368" s="48"/>
       <c r="E368" s="9"/>
       <c r="F368" s="9"/>
     </row>
@@ -13736,7 +13830,7 @@
       <c r="A369" s="10"/>
       <c r="B369" s="10"/>
       <c r="C369" s="10"/>
-      <c r="D369" s="55"/>
+      <c r="D369" s="48"/>
       <c r="E369" s="9"/>
       <c r="F369" s="9"/>
     </row>
@@ -13744,7 +13838,7 @@
       <c r="A370" s="10"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
-      <c r="D370" s="56"/>
+      <c r="D370" s="49"/>
       <c r="E370" s="9"/>
       <c r="F370" s="9"/>
     </row>
@@ -15517,12 +15611,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L220"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -16545,7 +16639,7 @@
     <row r="88" customHeight="1" spans="1:6">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="8" t="s">
         <v>902</v>
       </c>
       <c r="D88" s="9" t="s">
@@ -16557,7 +16651,7 @@
     <row r="89" customHeight="1" spans="1:6">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="20"/>
+      <c r="C89" s="10"/>
       <c r="D89" s="9" t="s">
         <v>904</v>
       </c>
@@ -16567,8 +16661,8 @@
     <row r="90" customHeight="1" spans="1:6">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21" t="s">
+      <c r="C90" s="10"/>
+      <c r="D90" s="7" t="s">
         <v>905</v>
       </c>
       <c r="E90" s="9"/>
@@ -16577,115 +16671,123 @@
     <row r="91" customHeight="1" spans="1:6">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="E91" s="22"/>
+      <c r="E91" s="9" t="s">
+        <v>908</v>
+      </c>
       <c r="F91" s="9"/>
     </row>
     <row r="92" customHeight="1" spans="1:6">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22" t="s">
-        <v>908</v>
-      </c>
-      <c r="E92" s="22"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>910</v>
+      </c>
       <c r="F92" s="9"/>
     </row>
     <row r="93" customHeight="1" spans="1:6">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22" t="s">
-        <v>909</v>
-      </c>
-      <c r="E93" s="22"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>912</v>
+      </c>
       <c r="F93" s="9"/>
     </row>
     <row r="94" customHeight="1" spans="1:6">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22" t="s">
-        <v>910</v>
-      </c>
-      <c r="E94" s="22"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
     <row r="95" customHeight="1" spans="1:6">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22" t="s">
-        <v>911</v>
-      </c>
-      <c r="E95" s="22"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="E95" s="9"/>
       <c r="F95" s="9"/>
     </row>
     <row r="96" customHeight="1" spans="1:6">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22" t="s">
-        <v>912</v>
-      </c>
-      <c r="E96" s="22"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
     <row r="97" customHeight="1" spans="1:6">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="22" t="s">
-        <v>913</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>914</v>
-      </c>
-      <c r="E97" s="22"/>
+      <c r="C97" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>918</v>
+      </c>
       <c r="F97" s="9"/>
     </row>
     <row r="98" customHeight="1" spans="1:6">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23" t="s">
-        <v>915</v>
-      </c>
-      <c r="E98" s="22"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>920</v>
+      </c>
       <c r="F98" s="9"/>
     </row>
     <row r="99" customHeight="1" spans="1:6">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="23" t="s">
-        <v>916</v>
-      </c>
-      <c r="E99" s="22"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="9"/>
     </row>
     <row r="100" customHeight="1" spans="1:6">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="14" t="s">
-        <v>917</v>
-      </c>
-      <c r="E100" s="24"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="E100" s="9"/>
       <c r="F100" s="9"/>
     </row>
     <row r="101" customHeight="1" spans="1:6">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>919</v>
+      <c r="C101" s="20"/>
+      <c r="D101" s="21" t="s">
+        <v>923</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -16693,21 +16795,17 @@
     <row r="102" customHeight="1" spans="1:6">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9" t="s">
-        <v>920</v>
-      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
     <row r="103" customHeight="1" spans="1:6">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>922</v>
+      <c r="C103" s="23"/>
+      <c r="D103" s="22" t="s">
+        <v>924</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
@@ -16715,9 +16813,11 @@
     <row r="104" customHeight="1" spans="1:6">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9" t="s">
-        <v>923</v>
+      <c r="C104" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>926</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
@@ -16726,22 +16826,18 @@
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="9" t="s">
-        <v>924</v>
+      <c r="D105" s="11" t="s">
+        <v>927</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
     <row r="106" customHeight="1" spans="1:6">
       <c r="A106" s="9"/>
-      <c r="B106" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>926</v>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="11" t="s">
+        <v>928</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
@@ -16750,41 +16846,42 @@
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="E107" s="9"/>
+      <c r="D107" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="E107" s="24"/>
       <c r="F107" s="9"/>
     </row>
     <row r="108" customHeight="1" spans="1:6">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9" t="s">
-        <v>928</v>
+      <c r="C108" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>931</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" customHeight="1" spans="1:12">
+    <row r="109" customHeight="1" spans="1:6">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
-      <c r="C109" s="9" t="s">
-        <v>929</v>
-      </c>
+      <c r="C109" s="9"/>
       <c r="D109" s="9" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="L109"/>
     </row>
     <row r="110" customHeight="1" spans="1:6">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
+      <c r="C110" s="9" t="s">
+        <v>933</v>
+      </c>
       <c r="D110" s="9" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -16794,7 +16891,7 @@
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -16804,17 +16901,21 @@
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
     <row r="113" customHeight="1" spans="1:6">
       <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
+      <c r="B113" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="D113" s="9" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -16824,7 +16925,7 @@
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
@@ -16834,31 +16935,30 @@
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" customHeight="1" spans="1:6">
+    <row r="116" customHeight="1" spans="1:12">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
+      <c r="L116"/>
     </row>
     <row r="117" customHeight="1" spans="1:6">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="9" t="s">
-        <v>939</v>
-      </c>
+      <c r="C117" s="9"/>
       <c r="D117" s="9" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -16866,11 +16966,9 @@
     <row r="118" customHeight="1" spans="1:6">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
-      <c r="C118" s="9" t="s">
-        <v>941</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>942</v>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9" t="s">
+        <v>944</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -16879,7 +16977,9 @@
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="17"/>
+      <c r="D119" s="9" t="s">
+        <v>945</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
@@ -16887,7 +16987,9 @@
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="17"/>
+      <c r="D120" s="9" t="s">
+        <v>946</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
@@ -16895,15 +16997,19 @@
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="17"/>
+      <c r="D121" s="9" t="s">
+        <v>947</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" ht="54" customHeight="1" spans="1:6">
+    <row r="122" customHeight="1" spans="1:6">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
-      <c r="D122" s="17"/>
+      <c r="D122" s="9" t="s">
+        <v>948</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
@@ -16911,24 +17017,22 @@
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
     <row r="124" customHeight="1" spans="1:6">
       <c r="A124" s="9"/>
-      <c r="B124" s="9" t="s">
-        <v>945</v>
-      </c>
+      <c r="B124" s="9"/>
       <c r="C124" s="9" t="s">
-        <v>16</v>
+        <v>951</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -16937,10 +17041,10 @@
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>948</v>
+        <v>953</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>954</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -16949,52 +17053,40 @@
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="9" t="s">
-        <v>949</v>
-      </c>
+      <c r="D126" s="17"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
     <row r="127" customHeight="1" spans="1:6">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
-      <c r="C127" s="9" t="s">
-        <v>950</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>951</v>
-      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="17"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
     <row r="128" customHeight="1" spans="1:6">
       <c r="A128" s="9"/>
-      <c r="B128" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>954</v>
-      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="17"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" customHeight="1" spans="1:6">
+    <row r="129" ht="54" customHeight="1" spans="1:6">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="9" t="s">
-        <v>955</v>
-      </c>
+      <c r="D129" s="17"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
     <row r="130" customHeight="1" spans="1:6">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
+      <c r="C130" s="9" t="s">
+        <v>955</v>
+      </c>
       <c r="D130" s="9" t="s">
         <v>956</v>
       </c>
@@ -17003,11 +17095,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:6">
       <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
+      <c r="B131" s="9" t="s">
+        <v>957</v>
+      </c>
       <c r="C131" s="9" t="s">
-        <v>957</v>
-      </c>
-      <c r="D131" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>958</v>
       </c>
       <c r="E131" s="9"/>
@@ -17016,8 +17110,12 @@
     <row r="132" customHeight="1" spans="1:6">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="17"/>
+      <c r="C132" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>960</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
@@ -17025,69 +17123,65 @@
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="17"/>
+      <c r="D133" s="9" t="s">
+        <v>961</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" ht="75" customHeight="1" spans="1:6">
+    <row r="134" customHeight="1" spans="1:6">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
     <row r="135" customHeight="1" spans="1:6">
       <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
+      <c r="B135" s="9" t="s">
+        <v>964</v>
+      </c>
       <c r="C135" s="9" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>962</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>963</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
     <row r="136" customHeight="1" spans="1:6">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
-      <c r="C136" s="9" t="s">
-        <v>964</v>
-      </c>
+      <c r="C136" s="9"/>
       <c r="D136" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>966</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
     <row r="137" customHeight="1" spans="1:6">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
-      <c r="C137" s="9" t="s">
-        <v>967</v>
-      </c>
+      <c r="C137" s="9"/>
       <c r="D137" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="E137" s="9" t="s">
-        <v>969</v>
-      </c>
+      <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
     <row r="138" customHeight="1" spans="1:6">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9" t="s">
+      <c r="C138" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>970</v>
       </c>
       <c r="E138" s="9"/>
@@ -17096,12 +17190,8 @@
     <row r="139" customHeight="1" spans="1:6">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
-      <c r="C139" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>972</v>
-      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="17"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
@@ -17109,37 +17199,33 @@
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>974</v>
-      </c>
+      <c r="D140" s="17"/>
+      <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" customHeight="1" spans="1:6">
+    <row r="141" ht="75" customHeight="1" spans="1:6">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>976</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>977</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
     <row r="142" customHeight="1" spans="1:6">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
+      <c r="C142" s="9" t="s">
+        <v>973</v>
+      </c>
       <c r="D142" s="9" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F142" s="9"/>
     </row>
@@ -17147,94 +17233,98 @@
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="E143" s="9"/>
+        <v>977</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>978</v>
+      </c>
       <c r="F143" s="9"/>
     </row>
     <row r="144" customHeight="1" spans="1:6">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
+      <c r="C144" s="9" t="s">
+        <v>979</v>
+      </c>
       <c r="D144" s="9" t="s">
-        <v>982</v>
-      </c>
-      <c r="E144" s="9"/>
+        <v>980</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>981</v>
+      </c>
       <c r="F144" s="9"/>
     </row>
     <row r="145" customHeight="1" spans="1:6">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
-      <c r="C145" s="9" t="s">
-        <v>983</v>
-      </c>
+      <c r="C145" s="9"/>
       <c r="D145" s="9" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" ht="80" customHeight="1" spans="1:6">
+    <row r="146" customHeight="1" spans="1:6">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>987</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="E146" s="9"/>
       <c r="F146" s="9"/>
     </row>
-    <row r="147" ht="69" customHeight="1" spans="1:6">
+    <row r="147" customHeight="1" spans="1:6">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
-      <c r="C147" s="9" t="s">
-        <v>988</v>
-      </c>
+      <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" ht="69" customHeight="1" spans="1:6">
+    <row r="148" customHeight="1" spans="1:6">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
+      <c r="C148" s="9" t="s">
+        <v>987</v>
+      </c>
       <c r="D148" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="E148" s="9"/>
+        <v>988</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>989</v>
+      </c>
       <c r="F148" s="9"/>
     </row>
-    <row r="149" ht="152" customHeight="1" spans="1:6">
+    <row r="149" customHeight="1" spans="1:6">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
-      <c r="C149" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="E149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>991</v>
+      </c>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" ht="75" customHeight="1" spans="1:6">
+    <row r="150" customHeight="1" spans="1:6">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -17242,83 +17332,83 @@
     <row r="151" customHeight="1" spans="1:6">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
-      <c r="C151" s="9" t="s">
-        <v>996</v>
-      </c>
+      <c r="C151" s="9"/>
       <c r="D151" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>998</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
     <row r="152" customHeight="1" spans="1:6">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
+      <c r="C152" s="9" t="s">
+        <v>995</v>
+      </c>
       <c r="D152" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>1000</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="E152" s="9"/>
       <c r="F152" s="9"/>
     </row>
-    <row r="153" customHeight="1" spans="1:6">
+    <row r="153" ht="80" customHeight="1" spans="1:6">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
+      <c r="C153" s="9" t="s">
+        <v>997</v>
+      </c>
       <c r="D153" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E153" s="9"/>
+        <v>998</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>999</v>
+      </c>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" customHeight="1" spans="1:6">
+    <row r="154" ht="69" customHeight="1" spans="1:6">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E154" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E154" s="9"/>
       <c r="F154" s="9"/>
     </row>
-    <row r="155" customHeight="1" spans="1:6">
+    <row r="155" ht="69" customHeight="1" spans="1:6">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" customHeight="1" spans="1:6">
+    <row r="156" ht="152" customHeight="1" spans="1:6">
       <c r="A156" s="9"/>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="9"/>
+      <c r="C156" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D156" s="17" t="s">
         <v>1005</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>1007</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
-    <row r="157" customHeight="1" spans="1:6">
+    <row r="157" ht="75" customHeight="1" spans="1:6">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -17326,33 +17416,35 @@
     <row r="158" customHeight="1" spans="1:6">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
+      <c r="C158" s="9" t="s">
+        <v>1008</v>
+      </c>
       <c r="D158" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="E158" s="9"/>
       <c r="F158" s="9"/>
     </row>
     <row r="159" customHeight="1" spans="1:6">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="9"/>
+      <c r="D159" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="E159" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
     <row r="160" customHeight="1" spans="1:6">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="9"/>
+      <c r="D160" s="9" t="s">
         <v>1013</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>1014</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -17360,8 +17452,10 @@
     <row r="161" customHeight="1" spans="1:6">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="14" t="s">
+      <c r="C161" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>1015</v>
       </c>
       <c r="E161" s="9"/>
@@ -17370,21 +17464,21 @@
     <row r="162" customHeight="1" spans="1:6">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>1018</v>
-      </c>
+      <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
     <row r="163" customHeight="1" spans="1:6">
       <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
+      <c r="B163" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>1018</v>
+      </c>
       <c r="D163" s="9" t="s">
         <v>1019</v>
       </c>
@@ -17394,46 +17488,45 @@
     <row r="164" customHeight="1" spans="1:6">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
+      <c r="C164" s="9" t="s">
+        <v>1020</v>
+      </c>
       <c r="D164" s="9" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
     <row r="165" customHeight="1" spans="1:6">
       <c r="A165" s="9"/>
-      <c r="B165" s="9" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
       <c r="D165" s="9" t="s">
         <v>1022</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" customHeight="1" spans="1:9">
+    <row r="166" customHeight="1" spans="1:6">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
+      <c r="C166" s="9" t="s">
+        <v>1023</v>
+      </c>
       <c r="D166" s="9" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
-      <c r="I166"/>
     </row>
     <row r="167" customHeight="1" spans="1:6">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D167" s="17" t="s">
         <v>1025</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>1026</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
@@ -17442,7 +17535,9 @@
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="17"/>
+      <c r="D168" s="14" t="s">
+        <v>1027</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
@@ -17450,22 +17545,22 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E169" s="9"/>
+        <v>1029</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>1030</v>
+      </c>
       <c r="F169" s="9"/>
     </row>
     <row r="170" customHeight="1" spans="1:6">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
-      <c r="C170" s="9" t="s">
-        <v>1028</v>
-      </c>
+      <c r="C170" s="9"/>
       <c r="D170" s="9" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
@@ -17475,41 +17570,44 @@
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
     <row r="172" customHeight="1" spans="1:6">
       <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
+      <c r="B172" s="9" t="s">
+        <v>1033</v>
+      </c>
       <c r="C172" s="9" t="s">
-        <v>1031</v>
+        <v>16</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>1033</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="E172" s="9"/>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" customHeight="1" spans="1:6">
+    <row r="173" customHeight="1" spans="1:9">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
+      <c r="I173"/>
     </row>
     <row r="174" customHeight="1" spans="1:6">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9" t="s">
-        <v>1035</v>
+      <c r="C174" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>1037</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -17518,18 +17616,18 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
-      <c r="D175" s="9" t="s">
-        <v>1036</v>
-      </c>
+      <c r="D175" s="17"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
     <row r="176" customHeight="1" spans="1:6">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
+      <c r="C176" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="D176" s="9" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
@@ -17538,46 +17636,44 @@
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E177" s="9"/>
-      <c r="F177" s="7"/>
+      <c r="F177" s="9"/>
     </row>
     <row r="178" customHeight="1" spans="1:6">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E178" s="9"/>
-      <c r="F178" s="7"/>
+      <c r="F178" s="9"/>
     </row>
     <row r="179" customHeight="1" spans="1:6">
       <c r="A179" s="9"/>
-      <c r="B179" s="9" t="s">
-        <v>1041</v>
-      </c>
+      <c r="B179" s="9"/>
       <c r="C179" s="9" t="s">
-        <v>16</v>
+        <v>1043</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E179" s="9"/>
+        <v>1044</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>1045</v>
+      </c>
       <c r="F179" s="9"/>
     </row>
     <row r="180" customHeight="1" spans="1:6">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
-      <c r="C180" s="9" t="s">
-        <v>1043</v>
-      </c>
+      <c r="C180" s="9"/>
       <c r="D180" s="9" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -17587,7 +17683,7 @@
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
@@ -17597,7 +17693,7 @@
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
@@ -17607,7 +17703,7 @@
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -17615,31 +17711,35 @@
     <row r="184" customHeight="1" spans="1:6">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
+      <c r="C184" s="9" t="s">
+        <v>1050</v>
+      </c>
       <c r="D184" s="9" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
+      <c r="F184" s="7"/>
     </row>
     <row r="185" customHeight="1" spans="1:6">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
-      <c r="C185" s="9" t="s">
-        <v>1049</v>
-      </c>
+      <c r="C185" s="9"/>
       <c r="D185" s="9" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E185" s="9"/>
-      <c r="F185" s="9"/>
+      <c r="F185" s="7"/>
     </row>
     <row r="186" customHeight="1" spans="1:6">
       <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
+      <c r="B186" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="D186" s="9" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
@@ -17648,10 +17748,10 @@
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -17659,11 +17759,9 @@
     <row r="188" customHeight="1" spans="1:6">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
-      <c r="C188" s="9" t="s">
-        <v>1054</v>
-      </c>
+      <c r="C188" s="9"/>
       <c r="D188" s="9" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
@@ -17671,29 +17769,21 @@
     <row r="189" customHeight="1" spans="1:6">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
-      <c r="C189" s="9" t="s">
-        <v>1056</v>
-      </c>
+      <c r="C189" s="9"/>
       <c r="D189" s="9" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
     <row r="190" customHeight="1" spans="1:6">
       <c r="A190" s="9"/>
-      <c r="B190" s="9" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>572</v>
-      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
       <c r="D190" s="9" t="s">
         <v>1059</v>
       </c>
-      <c r="E190" s="9" t="s">
-        <v>1060</v>
-      </c>
+      <c r="E190" s="9"/>
       <c r="F190" s="9"/>
     </row>
     <row r="191" customHeight="1" spans="1:6">
@@ -17701,7 +17791,7 @@
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -17710,10 +17800,10 @@
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D192" s="9" t="s">
         <v>1062</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>1063</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
@@ -17721,23 +17811,21 @@
     <row r="193" customHeight="1" spans="1:6">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
-      <c r="C193" s="9" t="s">
-        <v>1064</v>
-      </c>
+      <c r="C193" s="9"/>
       <c r="D193" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>1066</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
     <row r="194" customHeight="1" spans="1:6">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
+      <c r="C194" s="9" t="s">
+        <v>1064</v>
+      </c>
       <c r="D194" s="9" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
@@ -17745,72 +17833,78 @@
     <row r="195" customHeight="1" spans="1:6">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
+      <c r="C195" s="9" t="s">
+        <v>1066</v>
+      </c>
       <c r="D195" s="9" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>1069</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
     <row r="196" customHeight="1" spans="1:6">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F196" s="7"/>
+        <v>1069</v>
+      </c>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
     </row>
     <row r="197" customHeight="1" spans="1:6">
       <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
+      <c r="B197" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>572</v>
+      </c>
       <c r="D197" s="9" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F197" s="7"/>
+        <v>1072</v>
+      </c>
+      <c r="F197" s="9"/>
     </row>
     <row r="198" customHeight="1" spans="1:6">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
-      <c r="C198" s="9" t="s">
-        <v>1075</v>
-      </c>
+      <c r="C198" s="9"/>
       <c r="D198" s="9" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E198" s="9"/>
-      <c r="F198" s="7"/>
+      <c r="F198" s="9"/>
     </row>
     <row r="199" customHeight="1" spans="1:6">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
+      <c r="C199" s="9" t="s">
+        <v>1074</v>
+      </c>
       <c r="D199" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E199" s="9"/>
-      <c r="F199" s="7"/>
+      <c r="F199" s="9"/>
     </row>
     <row r="200" customHeight="1" spans="1:6">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
+      <c r="C200" s="9" t="s">
+        <v>1076</v>
+      </c>
       <c r="D200" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E200" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="E200" s="9"/>
-      <c r="F200" s="7"/>
+      <c r="F200" s="9"/>
     </row>
     <row r="201" customHeight="1" spans="1:6">
       <c r="A201" s="9"/>
@@ -17820,77 +17914,77 @@
         <v>1079</v>
       </c>
       <c r="E201" s="9"/>
-      <c r="F201" s="7"/>
+      <c r="F201" s="9"/>
     </row>
     <row r="202" customHeight="1" spans="1:6">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="9"/>
+      <c r="D202" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="E202" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="E202" s="9"/>
-      <c r="F202" s="7"/>
+      <c r="F202" s="9"/>
     </row>
     <row r="203" customHeight="1" spans="1:6">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
+      <c r="C203" s="9" t="s">
+        <v>1082</v>
+      </c>
       <c r="D203" s="9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E203" s="9"/>
+        <v>1083</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>1084</v>
+      </c>
       <c r="F203" s="7"/>
     </row>
     <row r="204" customHeight="1" spans="1:6">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
-      <c r="C204" s="9" t="s">
-        <v>1083</v>
-      </c>
+      <c r="C204" s="9"/>
       <c r="D204" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E204" s="9"/>
-      <c r="F204" s="25"/>
+        <v>1085</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F204" s="7"/>
     </row>
     <row r="205" customHeight="1" spans="1:6">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
+      <c r="C205" s="9" t="s">
+        <v>1087</v>
+      </c>
       <c r="D205" s="9" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
+      <c r="F205" s="7"/>
     </row>
     <row r="206" customHeight="1" spans="1:6">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F206" s="9"/>
+        <v>1089</v>
+      </c>
+      <c r="E206" s="9"/>
+      <c r="F206" s="7"/>
     </row>
     <row r="207" customHeight="1" spans="1:6">
       <c r="A207" s="9"/>
-      <c r="B207" s="9" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>1089</v>
-      </c>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
       <c r="D207" s="9" t="s">
         <v>1090</v>
       </c>
       <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
+      <c r="F207" s="7"/>
     </row>
     <row r="208" customHeight="1" spans="1:6">
       <c r="A208" s="9"/>
@@ -17900,7 +17994,7 @@
         <v>1091</v>
       </c>
       <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
+      <c r="F208" s="7"/>
     </row>
     <row r="209" customHeight="1" spans="1:6">
       <c r="A209" s="9"/>
@@ -17912,44 +18006,38 @@
         <v>1093</v>
       </c>
       <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
+      <c r="F209" s="7"/>
     </row>
     <row r="210" customHeight="1" spans="1:6">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="9"/>
+      <c r="D210" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="D210" s="9" t="s">
-        <v>1095</v>
-      </c>
       <c r="E210" s="9"/>
-      <c r="F210" s="9"/>
+      <c r="F210" s="7"/>
     </row>
     <row r="211" customHeight="1" spans="1:6">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
+      <c r="C211" s="9" t="s">
+        <v>1095</v>
+      </c>
       <c r="D211" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="E211" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="25"/>
     </row>
     <row r="212" customHeight="1" spans="1:6">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
-      <c r="C212" s="9" t="s">
-        <v>1098</v>
-      </c>
+      <c r="C212" s="9"/>
       <c r="D212" s="9" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>1100</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
     <row r="213" customHeight="1" spans="1:6">
@@ -17957,35 +18045,33 @@
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F213" s="9"/>
     </row>
     <row r="214" customHeight="1" spans="1:6">
       <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
+      <c r="B214" s="9" t="s">
+        <v>1100</v>
+      </c>
       <c r="C214" s="9" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>1105</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
     <row r="215" customHeight="1" spans="1:6">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
-      <c r="C215" s="9" t="s">
-        <v>869</v>
-      </c>
+      <c r="C215" s="9"/>
       <c r="D215" s="9" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
@@ -17994,48 +18080,50 @@
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>1109</v>
-      </c>
+        <v>1105</v>
+      </c>
+      <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
     <row r="217" customHeight="1" spans="1:6">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
+      <c r="C217" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="D217" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E217" s="9" t="s">
-        <v>1110</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
     <row r="218" customHeight="1" spans="1:6">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
-      <c r="C218" s="9" t="s">
-        <v>1111</v>
-      </c>
+      <c r="C218" s="9"/>
       <c r="D218" s="9" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E218" s="9"/>
+        <v>1108</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>1109</v>
+      </c>
       <c r="F218" s="9"/>
     </row>
     <row r="219" customHeight="1" spans="1:6">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
+      <c r="C219" s="9" t="s">
+        <v>1110</v>
+      </c>
       <c r="D219" s="9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E219" s="9"/>
+        <v>1111</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>1112</v>
+      </c>
       <c r="F219" s="9"/>
     </row>
     <row r="220" customHeight="1" spans="1:6">
@@ -18043,18 +18131,104 @@
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E220" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="E220" s="9" t="s">
+      <c r="F220" s="9"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:6">
+      <c r="A221" s="9"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="F220" s="9"/>
+      <c r="D221" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F221" s="9"/>
+    </row>
+    <row r="222" customHeight="1" spans="1:6">
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+    </row>
+    <row r="223" customHeight="1" spans="1:6">
+      <c r="A223" s="9"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" customHeight="1" spans="1:6">
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225" customHeight="1" spans="1:6">
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226" customHeight="1" spans="1:6">
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+    </row>
+    <row r="227" customHeight="1" spans="1:6">
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F227" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="94">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:A82"/>
-    <mergeCell ref="A83:A220"/>
+    <mergeCell ref="A83:A227"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B33:B43"/>
@@ -18062,15 +18236,15 @@
     <mergeCell ref="B46:B63"/>
     <mergeCell ref="B64:B69"/>
     <mergeCell ref="B70:B82"/>
-    <mergeCell ref="B83:B105"/>
-    <mergeCell ref="B106:B123"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B155"/>
-    <mergeCell ref="B156:B164"/>
-    <mergeCell ref="B165:B178"/>
-    <mergeCell ref="B179:B189"/>
-    <mergeCell ref="B190:B206"/>
-    <mergeCell ref="B207:B220"/>
+    <mergeCell ref="B83:B112"/>
+    <mergeCell ref="B113:B130"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B162"/>
+    <mergeCell ref="B163:B171"/>
+    <mergeCell ref="B172:B185"/>
+    <mergeCell ref="B186:B196"/>
+    <mergeCell ref="B197:B213"/>
+    <mergeCell ref="B214:B227"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
@@ -18093,57 +18267,59 @@
     <mergeCell ref="C84:C86"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C150:C151"/>
     <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C164:C165"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="C174:C175"/>
     <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C180:C184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C227"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="D174:D175"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="F54:F58"/>
-    <mergeCell ref="F87:F102"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="F109:F115"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="F196:F203"/>
+    <mergeCell ref="F87:F109"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="F116:F122"/>
+    <mergeCell ref="F131:F134"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="F203:F210"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18193,16 +18369,16 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -18211,10 +18387,10 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -18223,10 +18399,10 @@
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -18292,13 +18468,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -18308,7 +18484,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -18318,7 +18494,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -18328,7 +18504,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -18337,10 +18513,10 @@
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -18350,7 +18526,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="14" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -18359,10 +18535,10 @@
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>1132</v>
+        <v>1144</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1133</v>
+        <v>1145</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -18372,10 +18548,10 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>1134</v>
+        <v>1146</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1135</v>
+        <v>1147</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -18383,10 +18559,10 @@
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -18396,10 +18572,10 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
       <c r="F21" s="9"/>
     </row>
@@ -18408,10 +18584,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="F22" s="9"/>
     </row>
@@ -18420,10 +18596,10 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
       <c r="F23" s="9"/>
     </row>
@@ -18432,10 +18608,10 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="F24" s="9"/>
     </row>
@@ -18443,10 +18619,10 @@
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>1146</v>
+        <v>1158</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1147</v>
+        <v>1159</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -18456,7 +18632,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>1148</v>
+        <v>1160</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -18466,7 +18642,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>1149</v>
+        <v>1161</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -18476,7 +18652,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -18485,10 +18661,10 @@
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -18498,7 +18674,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -18508,7 +18684,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -18518,7 +18694,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>1155</v>
+        <v>1167</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -18527,10 +18703,10 @@
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -18540,7 +18716,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -18550,7 +18726,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -18560,7 +18736,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -18569,13 +18745,13 @@
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="8" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
       <c r="F37" s="9"/>
     </row>
@@ -18584,7 +18760,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="9" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -18594,7 +18770,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="9" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -18604,7 +18780,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="9" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -18614,7 +18790,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="12"/>
       <c r="D41" s="9" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -18623,10 +18799,10 @@
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -18636,7 +18812,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="9" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -18646,7 +18822,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="9" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -18656,23 +18832,23 @@
       <c r="B45" s="9"/>
       <c r="C45" s="12"/>
       <c r="D45" s="9" t="s">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>1173</v>
+        <v>1185</v>
       </c>
       <c r="F45" s="9"/>
     </row>
     <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="10"/>
       <c r="B46" s="8" t="s">
-        <v>1174</v>
+        <v>1186</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1175</v>
+        <v>1187</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -18681,10 +18857,10 @@
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="9" t="s">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -18693,10 +18869,10 @@
       <c r="A48" s="10"/>
       <c r="B48" s="12"/>
       <c r="C48" s="9" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1180</v>
+        <v>1192</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -18704,13 +18880,13 @@
     <row r="49" customHeight="1" spans="1:6">
       <c r="A49" s="10"/>
       <c r="B49" s="9" t="s">
-        <v>1181</v>
+        <v>1193</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>1182</v>
+        <v>1194</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>24</v>
@@ -18722,7 +18898,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>1183</v>
+        <v>1195</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>5</v>
@@ -18734,10 +18910,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
       <c r="F51" s="9"/>
     </row>
@@ -18745,10 +18921,10 @@
       <c r="A52" s="10"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -18757,10 +18933,10 @@
       <c r="A53" s="10"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -18769,10 +18945,10 @@
       <c r="A54" s="10"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -18781,10 +18957,10 @@
       <c r="A55" s="10"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -18794,7 +18970,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -18804,7 +18980,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -18814,7 +18990,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -18824,7 +19000,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -18834,7 +19010,7 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -18843,10 +19019,10 @@
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -18856,7 +19032,7 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -18866,7 +19042,7 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -18876,7 +19052,7 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -18886,7 +19062,7 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -18896,7 +19072,7 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="s">
-        <v>1205</v>
+        <v>1217</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -18906,7 +19082,7 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -18916,7 +19092,7 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -18925,10 +19101,10 @@
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -18938,7 +19114,7 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -18948,7 +19124,7 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -18957,10 +19133,10 @@
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -18970,7 +19146,7 @@
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -18979,10 +19155,10 @@
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -18992,7 +19168,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -19002,7 +19178,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="17" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -19011,10 +19187,10 @@
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1220</v>
+        <v>1232</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -19024,7 +19200,7 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
-        <v>1221</v>
+        <v>1233</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -19034,7 +19210,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="18" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -19044,7 +19220,7 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="17" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -19054,7 +19230,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -19064,7 +19240,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -19074,7 +19250,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -19083,13 +19259,13 @@
       <c r="A84" s="10"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
       <c r="F84" s="9"/>
     </row>
@@ -19098,7 +19274,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -19108,7 +19284,7 @@
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -19118,7 +19294,7 @@
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -19128,7 +19304,7 @@
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -19136,13 +19312,13 @@
     <row r="89" customHeight="1" spans="1:6">
       <c r="A89" s="10"/>
       <c r="B89" s="9" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -19152,7 +19328,7 @@
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -19160,13 +19336,13 @@
     <row r="91" customHeight="1" spans="1:6">
       <c r="A91" s="10"/>
       <c r="B91" s="9" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -19177,10 +19353,10 @@
         <v>854</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -19189,10 +19365,10 @@
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="9" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -19201,26 +19377,26 @@
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="9" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
     <row r="95" customHeight="1" spans="1:6">
       <c r="A95" s="9" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -19229,10 +19405,10 @@
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -19242,7 +19418,7 @@
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -19252,7 +19428,7 @@
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -19264,7 +19440,7 @@
         <v>24</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -19274,7 +19450,7 @@
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="14" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -19283,13 +19459,13 @@
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="F101" s="9"/>
     </row>
@@ -19298,7 +19474,7 @@
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -19307,13 +19483,13 @@
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="F103" s="9"/>
     </row>
@@ -19322,7 +19498,7 @@
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
@@ -19331,13 +19507,13 @@
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="F105" s="9"/>
     </row>
@@ -19345,13 +19521,13 @@
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="F106" s="9"/>
     </row>
@@ -19360,7 +19536,7 @@
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -19368,13 +19544,13 @@
     <row r="108" customHeight="1" spans="1:6">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
@@ -19383,10 +19559,10 @@
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
@@ -19395,10 +19571,10 @@
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -19407,13 +19583,13 @@
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
       <c r="F111" s="9"/>
     </row>
@@ -19421,10 +19597,10 @@
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -19434,7 +19610,7 @@
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -19444,7 +19620,7 @@
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
@@ -19454,7 +19630,7 @@
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
@@ -19464,7 +19640,7 @@
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
@@ -19473,10 +19649,10 @@
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -19486,7 +19662,7 @@
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -19496,7 +19672,7 @@
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -19506,7 +19682,7 @@
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -19516,7 +19692,7 @@
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -19525,10 +19701,10 @@
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -19538,7 +19714,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
@@ -19549,7 +19725,7 @@
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -19558,10 +19734,10 @@
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -19570,10 +19746,10 @@
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -19583,7 +19759,7 @@
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
@@ -19593,7 +19769,7 @@
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
@@ -19603,7 +19779,7 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -19612,10 +19788,10 @@
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -19624,10 +19800,10 @@
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -19636,10 +19812,10 @@
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -19648,10 +19824,10 @@
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -19661,7 +19837,7 @@
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -19671,10 +19847,10 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="F135" s="9"/>
     </row>
@@ -19682,10 +19858,10 @@
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -19694,10 +19870,10 @@
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -19706,10 +19882,10 @@
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="7"/>
@@ -19719,10 +19895,10 @@
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="F139" s="7"/>
     </row>
@@ -19730,10 +19906,10 @@
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="7"/>
@@ -19743,7 +19919,7 @@
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="7"/>
@@ -19753,7 +19929,7 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="7"/>
@@ -19763,7 +19939,7 @@
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="7"/>
@@ -19772,10 +19948,10 @@
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="7"/>
@@ -19783,13 +19959,13 @@
     <row r="145" customHeight="1" spans="1:6">
       <c r="A145" s="9"/>
       <c r="B145" s="9" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -19798,10 +19974,10 @@
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -19809,13 +19985,13 @@
     <row r="147" customHeight="1" spans="1:6">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>572</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -19824,13 +20000,13 @@
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="F148" s="9"/>
     </row>
@@ -19839,7 +20015,7 @@
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -19849,7 +20025,7 @@
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -19859,7 +20035,7 @@
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
@@ -19869,7 +20045,7 @@
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
@@ -19878,10 +20054,10 @@
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
@@ -19891,7 +20067,7 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
@@ -19901,7 +20077,7 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -19910,13 +20086,13 @@
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="F156" s="9"/>
     </row>
@@ -19925,7 +20101,7 @@
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -19935,7 +20111,7 @@
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -19945,10 +20121,10 @@
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
       <c r="F159" s="9"/>
     </row>
@@ -19957,7 +20133,7 @@
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -19967,7 +20143,7 @@
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="17" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -19992,10 +20168,10 @@
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>1357</v>
+        <v>1369</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
@@ -20005,7 +20181,7 @@
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
@@ -20015,7 +20191,7 @@
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
@@ -20025,7 +20201,7 @@
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
@@ -20035,7 +20211,7 @@
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
@@ -20045,7 +20221,7 @@
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
@@ -20055,7 +20231,7 @@
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
@@ -20065,7 +20241,7 @@
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
@@ -20075,7 +20251,7 @@
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
@@ -20086,7 +20262,7 @@
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
@@ -20096,7 +20272,7 @@
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -20106,7 +20282,7 @@
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
@@ -20116,7 +20292,7 @@
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
@@ -20125,10 +20301,10 @@
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -20138,7 +20314,7 @@
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
@@ -20148,7 +20324,7 @@
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -20158,7 +20334,7 @@
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -20168,7 +20344,7 @@
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
@@ -20178,7 +20354,7 @@
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
@@ -20186,13 +20362,13 @@
     <row r="183" customHeight="1" spans="1:6">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -20202,7 +20378,7 @@
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
@@ -20212,7 +20388,7 @@
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -20221,10 +20397,10 @@
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
@@ -20234,7 +20410,7 @@
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -20244,10 +20420,10 @@
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="F188" s="9"/>
     </row>
@@ -20256,7 +20432,7 @@
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -20265,10 +20441,10 @@
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -20279,7 +20455,7 @@
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -20289,7 +20465,7 @@
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
@@ -20298,10 +20474,10 @@
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
@@ -20311,7 +20487,7 @@
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
@@ -20321,7 +20497,7 @@
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
@@ -20331,7 +20507,7 @@
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
@@ -20340,10 +20516,10 @@
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
@@ -20352,10 +20528,10 @@
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
@@ -20365,7 +20541,7 @@
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
@@ -20375,7 +20551,7 @@
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
@@ -20385,7 +20561,7 @@
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
@@ -20393,13 +20569,13 @@
     <row r="202" customHeight="1" spans="1:6">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
@@ -20409,7 +20585,7 @@
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
@@ -20418,10 +20594,10 @@
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="8" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
@@ -20431,7 +20607,7 @@
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
       <c r="D205" s="9" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
@@ -20441,7 +20617,7 @@
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="9" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
@@ -20451,10 +20627,10 @@
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="9" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="F207" s="9"/>
     </row>
@@ -20463,7 +20639,7 @@
       <c r="B208" s="9"/>
       <c r="C208" s="10"/>
       <c r="D208" s="9" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
@@ -20473,7 +20649,7 @@
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="9" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
@@ -20483,7 +20659,7 @@
       <c r="B210" s="9"/>
       <c r="C210" s="12"/>
       <c r="D210" s="9" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
@@ -20491,16 +20667,16 @@
     <row r="211" customHeight="1" spans="1:6">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>1418</v>
+        <v>1430</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>1419</v>
+        <v>1431</v>
       </c>
       <c r="F211" s="9"/>
     </row>
@@ -20508,10 +20684,10 @@
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
@@ -20521,7 +20697,7 @@
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9" t="s">
-        <v>1422</v>
+        <v>1434</v>
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
@@ -20531,7 +20707,7 @@
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
@@ -20541,10 +20717,10 @@
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9" t="s">
-        <v>1424</v>
+        <v>1436</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="F215" s="9"/>
     </row>
@@ -20552,10 +20728,10 @@
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
@@ -20564,10 +20740,10 @@
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
